--- a/data/raw/CU.IMT_DATA.2023.xlsx
+++ b/data/raw/CU.IMT_DATA.2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/IMT/raw-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/IMT/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC48E990-0DEF-724A-833C-C71E60E36788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698C18A1-C441-0E40-B4C7-7ADCAC9D6F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="3760" windowWidth="34560" windowHeight="19960" activeTab="4" xr2:uid="{D9C177FB-1461-5243-831C-27D0D02B7C1C}"/>
+    <workbookView xWindow="0" yWindow="1180" windowWidth="34560" windowHeight="19960" activeTab="1" xr2:uid="{D9C177FB-1461-5243-831C-27D0D02B7C1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="6" r:id="rId1"/>
@@ -1856,6 +1856,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1869,16 +1879,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -6264,10 +6264,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E9AD021-BE6A-E146-A3AB-1AC4C80E8B46}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6278,7 +6278,7 @@
     <col min="7" max="7" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
@@ -6291,7 +6291,7 @@
       <c r="F1" s="61"/>
       <c r="G1" s="61"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="33"/>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -6300,7 +6300,7 @@
       <c r="F2" s="62"/>
       <c r="G2" s="62"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="31"/>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
@@ -6309,7 +6309,7 @@
       <c r="F3" s="62"/>
       <c r="G3" s="62"/>
     </row>
-    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -6332,7 +6332,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -6356,8 +6356,12 @@
         <f>F5*0.892179</f>
         <v>7844.2162038000015</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I5" s="54">
+        <f xml:space="preserve"> AVERAGE(G5,G7,G9,G11)</f>
+        <v>7423.3753695000014</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -6382,7 +6386,7 @@
         <v>28.906599600000007</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -6407,7 +6411,7 @@
         <v>9098.7983136000003</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -6432,7 +6436,7 @@
         <v>6.2452529999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -6457,7 +6461,7 @@
         <v>5855.9060844000005</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -6482,7 +6486,7 @@
         <v>43.181463600000001</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -6507,7 +6511,7 @@
         <v>6894.5808762000006</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -8037,20 +8041,20 @@
       <c r="E1" s="64"/>
       <c r="F1" s="64"/>
       <c r="G1" s="65"/>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="68"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="72"/>
     </row>
     <row r="2" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="63"/>
@@ -10584,97 +10588,97 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A42" s="69" t="s">
+      <c r="A42" s="73" t="s">
         <v>319</v>
       </c>
-      <c r="B42" s="69"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
+      <c r="B42" s="73"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A43" s="69" t="s">
+      <c r="A43" s="73" t="s">
         <v>320</v>
       </c>
-      <c r="B43" s="69"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="69"/>
-      <c r="F43" s="69"/>
+      <c r="B43" s="73"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="73"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A44" s="70" t="s">
+      <c r="A44" s="74" t="s">
         <v>321</v>
       </c>
-      <c r="B44" s="70"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A45" s="71" t="s">
+      <c r="A45" s="66" t="s">
         <v>322</v>
       </c>
-      <c r="B45" s="71"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="71"/>
-      <c r="E45" s="71"/>
-      <c r="F45" s="71"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A46" s="72" t="s">
+      <c r="A46" s="67" t="s">
         <v>323</v>
       </c>
-      <c r="B46" s="72"/>
-      <c r="C46" s="72"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="72"/>
-      <c r="F46" s="72"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A47" s="73" t="s">
+      <c r="A47" s="68" t="s">
         <v>324</v>
       </c>
-      <c r="B47" s="73"/>
-      <c r="C47" s="73"/>
-      <c r="D47" s="73"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="73"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="68"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A48" s="74" t="s">
+      <c r="A48" s="69" t="s">
         <v>325</v>
       </c>
-      <c r="B48" s="74"/>
-      <c r="C48" s="74"/>
-      <c r="D48" s="74"/>
-      <c r="E48" s="74"/>
-      <c r="F48" s="74"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="74" t="s">
+      <c r="A49" s="69" t="s">
         <v>326</v>
       </c>
-      <c r="B49" s="74"/>
-      <c r="C49" s="74"/>
-      <c r="D49" s="74"/>
-      <c r="E49" s="74"/>
-      <c r="F49" s="74"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:G3"/>
+    <mergeCell ref="H1:S3"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A44:F44"/>
     <mergeCell ref="A45:F45"/>
     <mergeCell ref="A46:F46"/>
     <mergeCell ref="A47:F47"/>
     <mergeCell ref="A48:F48"/>
     <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A1:G3"/>
-    <mergeCell ref="H1:S3"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A44:F44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -10685,7 +10689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E3C537-5808-5F4F-8834-747C0AC15F7A}">
   <dimension ref="A1:AC48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
@@ -11002,7 +11006,7 @@
         <v>16.399999999999999</v>
       </c>
       <c r="R6">
-        <f t="shared" ref="R5:R40" si="3">N6/454</f>
+        <f t="shared" ref="R6:R40" si="3">N6/454</f>
         <v>0.65859030837004406</v>
       </c>
       <c r="S6">
@@ -11119,7 +11123,7 @@
         <v>3095.1212356290966</v>
       </c>
       <c r="V7">
-        <f t="shared" ref="U6:V24" si="11">O7*10</f>
+        <f t="shared" ref="V7:V24" si="11">O7*10</f>
         <v>4720</v>
       </c>
       <c r="W7" s="52">
@@ -12936,7 +12940,7 @@
         <v>1836.0888685935317</v>
       </c>
       <c r="V25">
-        <f t="shared" ref="U25:V40" si="12">O25*10</f>
+        <f t="shared" ref="V25:V40" si="12">O25*10</f>
         <v>2800</v>
       </c>
       <c r="W25" s="52">
